--- a/src/rdv/person.xlsx
+++ b/src/rdv/person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PENGHanyuan/Documents/Programs/Herchat/Herchat/src/rdv/assects/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PENGHanyuan/Documents/Programs/Herchat/Herchat/src/rdv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E8817-40EE-4745-9506-8FE11A6DFD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754A695-11F7-F748-836E-212BFFACFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,19 +40,19 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>Hanyuan</t>
-  </si>
-  <si>
-    <t>PENG</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
     <t>penghanyuan@gmail.com</t>
   </si>
   <si>
-    <t>E60326343</t>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t>Hang</t>
+  </si>
+  <si>
+    <t>E60326345</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1459,22 +1459,22 @@
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6">
-        <v>769142022</v>
+        <v>605895314</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
